--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed3/result_data_KNN.xlsx
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.559999999999999</v>
+        <v>-8.669</v>
       </c>
     </row>
     <row r="9">
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.684</v>
+        <v>-8.066000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.842000000000001</v>
+        <v>-6.725</v>
       </c>
     </row>
     <row r="13">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.034000000000001</v>
+        <v>-8.319000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.529999999999999</v>
+        <v>-7.675999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.279999999999999</v>
+        <v>-8.166</v>
       </c>
     </row>
     <row r="38">
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.218</v>
       </c>
     </row>
     <row r="56">
@@ -1390,7 +1390,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.842000000000001</v>
+        <v>-7.228999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -1516,7 +1516,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-8.391999999999999</v>
+        <v>-8.150000000000002</v>
       </c>
     </row>
     <row r="78">
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.616</v>
+        <v>-8.171000000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1544,7 +1544,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.731999999999999</v>
+        <v>-8.068999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.112000000000002</v>
+        <v>-7.989</v>
       </c>
     </row>
     <row r="81">
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.491999999999999</v>
+        <v>-7.754</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.077999999999999</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="83">
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.327999999999999</v>
+        <v>-8.442</v>
       </c>
     </row>
     <row r="85">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.390000000000001</v>
+        <v>-7.991</v>
       </c>
     </row>
     <row r="102">
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.118</v>
+        <v>-8.298</v>
       </c>
     </row>
     <row r="103">
